--- a/GGExperimentApr28/responses_GGExpApr28.xlsx
+++ b/GGExperimentApr28/responses_GGExpApr28.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14860" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="167">
   <si>
     <t>Respondent</t>
   </si>
@@ -402,15 +402,9 @@
     <t>like a bird</t>
   </si>
   <si>
-    <t>7 or 8</t>
-  </si>
-  <si>
     <t>I could make a case for every single one - can't decide</t>
   </si>
   <si>
-    <t>14 or 16</t>
-  </si>
-  <si>
     <t>little house</t>
   </si>
   <si>
@@ -523,13 +517,16 @@
   </si>
   <si>
     <t>SAM</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -563,6 +560,13 @@
       <color rgb="FF333333"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -581,7 +585,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -643,13 +647,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -680,6 +700,13 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -710,6 +737,13 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1039,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E221"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="E216" sqref="E216"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1050,7 +1084,7 @@
     <col min="2" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,16 +1092,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1081,16 +1118,19 @@
       <c r="D2">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f t="shared" ref="B3:B61" si="0">CHAR(64+ROW(A2))</f>
+        <f t="shared" ref="B3:B21" si="0">CHAR(64+ROW(A2))</f>
         <v>B</v>
       </c>
       <c r="C3" s="2">
@@ -1099,11 +1139,14 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1117,11 +1160,14 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1135,11 +1181,14 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1153,11 +1202,14 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1171,11 +1223,14 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1189,11 +1244,14 @@
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1207,11 +1265,14 @@
       <c r="D9">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1225,11 +1286,14 @@
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1243,11 +1307,14 @@
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1261,11 +1328,14 @@
       <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1279,11 +1349,14 @@
       <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1297,11 +1370,14 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1315,11 +1391,14 @@
       <c r="D15">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1333,11 +1412,14 @@
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1351,11 +1433,14 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1369,11 +1454,14 @@
       <c r="D18">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1387,11 +1475,14 @@
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1405,11 +1496,14 @@
       <c r="D20">
         <v>12</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1423,11 +1517,14 @@
       <c r="D21">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1440,11 +1537,14 @@
       <c r="D22">
         <v>15</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1457,11 +1557,14 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1474,11 +1577,14 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1491,11 +1597,14 @@
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1508,11 +1617,14 @@
       <c r="D26">
         <v>4</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1525,11 +1637,14 @@
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1542,11 +1657,14 @@
       <c r="D28">
         <v>6</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1559,11 +1677,14 @@
       <c r="D29">
         <v>13</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1576,11 +1697,14 @@
       <c r="D30">
         <v>4</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1593,11 +1717,14 @@
       <c r="D31">
         <v>10</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1610,11 +1737,14 @@
       <c r="D32">
         <v>5</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1627,11 +1757,14 @@
       <c r="D33">
         <v>5</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1644,11 +1777,14 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1661,11 +1797,14 @@
       <c r="D35">
         <v>8</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1678,11 +1817,14 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1695,11 +1837,14 @@
       <c r="D37">
         <v>4</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1712,11 +1857,14 @@
       <c r="D38">
         <v>4</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1729,11 +1877,14 @@
       <c r="D39">
         <v>9</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1746,11 +1897,14 @@
       <c r="D40">
         <v>6</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1763,11 +1917,14 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1780,11 +1937,14 @@
       <c r="D42">
         <v>13</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1797,11 +1957,14 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1814,11 +1977,14 @@
       <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1831,11 +1997,14 @@
       <c r="D45">
         <v>3</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1848,11 +2017,14 @@
       <c r="D46">
         <v>4</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1865,11 +2037,14 @@
       <c r="D47">
         <v>3</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1882,11 +2057,14 @@
       <c r="D48">
         <v>11</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1899,11 +2077,14 @@
       <c r="D49">
         <v>13</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1916,11 +2097,14 @@
       <c r="D50">
         <v>4</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1933,11 +2117,14 @@
       <c r="D51">
         <v>9</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>3</v>
       </c>
@@ -1950,11 +2137,14 @@
       <c r="D52">
         <v>6</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1967,11 +2157,14 @@
       <c r="D53">
         <v>5</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1984,11 +2177,14 @@
       <c r="D54">
         <v>3</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2001,11 +2197,14 @@
       <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2018,11 +2217,14 @@
       <c r="D56">
         <v>9</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2035,11 +2237,14 @@
       <c r="D57">
         <v>4</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2052,11 +2257,14 @@
       <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2069,11 +2277,14 @@
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2086,11 +2297,14 @@
       <c r="D60">
         <v>8</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2103,11 +2317,14 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>4</v>
       </c>
@@ -2120,11 +2337,14 @@
       <c r="D62">
         <v>13</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>4</v>
       </c>
@@ -2137,11 +2357,14 @@
       <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>4</v>
       </c>
@@ -2154,11 +2377,14 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>4</v>
       </c>
@@ -2171,11 +2397,14 @@
       <c r="D65">
         <v>2</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>4</v>
       </c>
@@ -2188,11 +2417,14 @@
       <c r="D66">
         <v>5</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>4</v>
       </c>
@@ -2205,11 +2437,14 @@
       <c r="D67">
         <v>2</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>4</v>
       </c>
@@ -2222,11 +2457,14 @@
       <c r="D68">
         <v>6</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>4</v>
       </c>
@@ -2239,11 +2477,14 @@
       <c r="D69">
         <v>11</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>4</v>
       </c>
@@ -2256,11 +2497,14 @@
       <c r="D70">
         <v>5</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>4</v>
       </c>
@@ -2273,11 +2517,14 @@
       <c r="D71">
         <v>3</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>4</v>
       </c>
@@ -2290,11 +2537,14 @@
       <c r="D72">
         <v>5</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>4</v>
       </c>
@@ -2307,11 +2557,14 @@
       <c r="D73">
         <v>5</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>4</v>
       </c>
@@ -2324,11 +2577,14 @@
       <c r="D74">
         <v>1</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>4</v>
       </c>
@@ -2341,11 +2597,14 @@
       <c r="D75">
         <v>7</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>4</v>
       </c>
@@ -2358,11 +2617,14 @@
       <c r="D76">
         <v>3</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>4</v>
       </c>
@@ -2375,11 +2637,14 @@
       <c r="D77">
         <v>6</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>4</v>
       </c>
@@ -2392,11 +2657,14 @@
       <c r="D78">
         <v>9</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>4</v>
       </c>
@@ -2409,11 +2677,14 @@
       <c r="D79">
         <v>7</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>4</v>
       </c>
@@ -2426,11 +2697,14 @@
       <c r="D80">
         <v>2</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="3">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2443,11 +2717,14 @@
       <c r="D81">
         <v>3</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="3">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>5</v>
       </c>
@@ -2460,11 +2737,14 @@
       <c r="D82">
         <v>4</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>5</v>
       </c>
@@ -2477,11 +2757,14 @@
       <c r="D83">
         <v>6</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="3">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>5</v>
       </c>
@@ -2494,11 +2777,14 @@
       <c r="D84">
         <v>1</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="3">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>5</v>
       </c>
@@ -2511,11 +2797,14 @@
       <c r="D85">
         <v>2</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="3">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>5</v>
       </c>
@@ -2528,11 +2817,14 @@
       <c r="D86">
         <v>5</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="3">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>5</v>
       </c>
@@ -2545,11 +2837,14 @@
       <c r="D87">
         <v>2</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="3">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>5</v>
       </c>
@@ -2562,11 +2857,14 @@
       <c r="D88">
         <v>6</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="3">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>5</v>
       </c>
@@ -2579,11 +2877,14 @@
       <c r="D89">
         <v>13</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="3">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>5</v>
       </c>
@@ -2596,11 +2897,14 @@
       <c r="D90">
         <v>4</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="3">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>5</v>
       </c>
@@ -2613,11 +2917,14 @@
       <c r="D91">
         <v>10</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="3">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>5</v>
       </c>
@@ -2630,11 +2937,14 @@
       <c r="D92">
         <v>5</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="3">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>5</v>
       </c>
@@ -2647,11 +2957,14 @@
       <c r="D93">
         <v>5</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>5</v>
       </c>
@@ -2664,11 +2977,14 @@
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="3">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>5</v>
       </c>
@@ -2681,11 +2997,14 @@
       <c r="D95">
         <v>1</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="3">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>5</v>
       </c>
@@ -2698,11 +3017,14 @@
       <c r="D96">
         <v>4</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>5</v>
       </c>
@@ -2715,11 +3037,14 @@
       <c r="D97">
         <v>4</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="3">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>5</v>
       </c>
@@ -2732,11 +3057,14 @@
       <c r="D98">
         <v>9</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="3">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>5</v>
       </c>
@@ -2749,11 +3077,14 @@
       <c r="D99">
         <v>2</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="3">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>5</v>
       </c>
@@ -2766,11 +3097,14 @@
       <c r="D100">
         <v>6</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>5</v>
       </c>
@@ -2783,11 +3117,14 @@
       <c r="D101">
         <v>6</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="3">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>6</v>
       </c>
@@ -2800,11 +3137,14 @@
       <c r="D102">
         <v>13</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="3">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>6</v>
       </c>
@@ -2817,11 +3157,14 @@
       <c r="D103">
         <v>2</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="3">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>6</v>
       </c>
@@ -2834,11 +3177,14 @@
       <c r="D104">
         <v>1</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="3">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>6</v>
       </c>
@@ -2851,11 +3197,14 @@
       <c r="D105">
         <v>2</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="3">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>6</v>
       </c>
@@ -2868,11 +3217,14 @@
       <c r="D106">
         <v>5</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="3">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>6</v>
       </c>
@@ -2885,11 +3237,14 @@
       <c r="D107">
         <v>2</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="3">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>6</v>
       </c>
@@ -2902,11 +3257,14 @@
       <c r="D108">
         <v>6</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="3">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>6</v>
       </c>
@@ -2919,11 +3277,14 @@
       <c r="D109">
         <v>13</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="3">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>6</v>
       </c>
@@ -2936,11 +3297,14 @@
       <c r="D110">
         <v>5</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="3">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>6</v>
       </c>
@@ -2953,11 +3317,14 @@
       <c r="D111">
         <v>3</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>6</v>
       </c>
@@ -2970,11 +3337,14 @@
       <c r="D112">
         <v>5</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>6</v>
       </c>
@@ -2987,11 +3357,14 @@
       <c r="D113">
         <v>5</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>6</v>
       </c>
@@ -3004,11 +3377,14 @@
       <c r="D114">
         <v>1</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="3">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>6</v>
       </c>
@@ -3021,11 +3397,14 @@
       <c r="D115">
         <v>7</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="3">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>6</v>
       </c>
@@ -3038,11 +3417,14 @@
       <c r="D116">
         <v>6</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="3">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>6</v>
       </c>
@@ -3055,11 +3437,14 @@
       <c r="D117">
         <v>4</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="3">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>6</v>
       </c>
@@ -3072,11 +3457,14 @@
       <c r="D118">
         <v>9</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>6</v>
       </c>
@@ -3089,11 +3477,14 @@
       <c r="D119">
         <v>2</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>6</v>
       </c>
@@ -3106,11 +3497,14 @@
       <c r="D120">
         <v>6</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>6</v>
       </c>
@@ -3123,11 +3517,14 @@
       <c r="D121">
         <v>4</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>7</v>
       </c>
@@ -3140,11 +3537,14 @@
       <c r="D122">
         <v>13</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>7</v>
       </c>
@@ -3157,11 +3557,14 @@
       <c r="D123">
         <v>1</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+      <c r="F123" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>7</v>
       </c>
@@ -3174,11 +3577,14 @@
       <c r="D124">
         <v>2</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="3">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>7</v>
       </c>
@@ -3191,11 +3597,14 @@
       <c r="D125">
         <v>3</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="3">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>7</v>
       </c>
@@ -3208,11 +3617,14 @@
       <c r="D126">
         <v>5</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="3">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>7</v>
       </c>
@@ -3225,11 +3637,14 @@
       <c r="D127">
         <v>2</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>7</v>
       </c>
@@ -3242,11 +3657,14 @@
       <c r="D128">
         <v>11</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="3">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>7</v>
       </c>
@@ -3259,11 +3677,14 @@
       <c r="D129">
         <v>13</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>7</v>
       </c>
@@ -3276,11 +3697,14 @@
       <c r="D130">
         <v>4</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="3">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>7</v>
       </c>
@@ -3293,11 +3717,14 @@
       <c r="D131">
         <v>2</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="3">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>7</v>
       </c>
@@ -3310,11 +3737,14 @@
       <c r="D132">
         <v>6</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="3">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>7</v>
       </c>
@@ -3327,11 +3757,14 @@
       <c r="D133">
         <v>5</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>7</v>
       </c>
@@ -3344,11 +3777,14 @@
       <c r="D134">
         <v>3</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>7</v>
       </c>
@@ -3361,11 +3797,14 @@
       <c r="D135">
         <v>1</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>7</v>
       </c>
@@ -3375,1456 +3814,1797 @@
       <c r="C136" s="2">
         <v>5</v>
       </c>
-      <c r="D136" t="s">
-        <v>127</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="D136">
+        <v>7</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F136" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>7</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C137" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D137">
-        <v>4</v>
-      </c>
-      <c r="E137" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>7</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C138" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D138">
         <v>4</v>
       </c>
-      <c r="E138" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="E138" s="3">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>7</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C139" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D139">
-        <v>6</v>
-      </c>
-      <c r="E139" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>7</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C140" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D140">
         <v>6</v>
       </c>
-      <c r="E140" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="E140" s="3">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>7</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="2">
+        <v>3</v>
+      </c>
+      <c r="D141">
+        <v>6</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>7</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C141" s="2">
-        <v>2</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="C142" s="2">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142">
-        <v>8</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C142" s="2">
-        <v>6</v>
-      </c>
-      <c r="D142">
-        <v>4</v>
-      </c>
-      <c r="E142" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>8</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C143" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D143">
-        <v>2</v>
-      </c>
-      <c r="E143" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>8</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D144">
         <v>2</v>
       </c>
-      <c r="E144" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="E144" s="3">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>8</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="E145" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="E145" s="3">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>8</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>5</v>
-      </c>
-      <c r="E146" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="E146" s="3">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>8</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C147" s="2">
-        <v>2</v>
-      </c>
-      <c r="D147" t="s">
-        <v>109</v>
-      </c>
-      <c r="E147" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="D147">
+        <v>5</v>
+      </c>
+      <c r="E147" s="3">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>8</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>10</v>
+      <c r="B148" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C148" s="2">
-        <v>3</v>
-      </c>
-      <c r="D148" t="s">
-        <v>129</v>
-      </c>
-      <c r="E148" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148" s="4">
+        <f xml:space="preserve"> 1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F148" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>8</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>11</v>
+      <c r="B149" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C149" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="E149" s="4">
+        <f xml:space="preserve"> 1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F149" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>8</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>12</v>
+      <c r="B150" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C150" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>4</v>
-      </c>
-      <c r="E150" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E150" s="4">
+        <f xml:space="preserve"> 1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F150" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>8</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C151" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D151">
-        <v>16</v>
-      </c>
-      <c r="E151" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F151" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>8</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C152" s="2">
         <v>3</v>
       </c>
       <c r="D152">
-        <v>4</v>
-      </c>
-      <c r="E152" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F152" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>8</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C153" s="2">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>5</v>
-      </c>
-      <c r="E153" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="E153" s="3">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>8</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C154" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D154">
-        <v>3</v>
-      </c>
-      <c r="E154" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="E154" s="3">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>8</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C155" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>7</v>
-      </c>
-      <c r="E155" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" s="3">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>8</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C156" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D156">
-        <v>6</v>
-      </c>
-      <c r="E156" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="E156" s="3">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>8</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C157" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
-      </c>
-      <c r="E157" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>8</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C158" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D158">
-        <v>9</v>
-      </c>
-      <c r="E158" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E158" s="3">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>8</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C159" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D159">
-        <v>9</v>
-      </c>
-      <c r="E159" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="E159" s="3">
+        <v>1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>8</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C160" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D160">
-        <v>2</v>
-      </c>
-      <c r="E160" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="E160" s="3">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>8</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="2">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" s="3">
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="2">
+        <v>9</v>
+      </c>
+      <c r="D162">
+        <v>9</v>
+      </c>
+      <c r="E162" s="3">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>8</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" s="2">
+        <v>5</v>
+      </c>
+      <c r="D163">
+        <v>9</v>
+      </c>
+      <c r="E163" s="3">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>8</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" s="2">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164" s="3">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>8</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C161" s="2">
-        <v>2</v>
-      </c>
-      <c r="D161">
-        <v>6</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="C165" s="2">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>6</v>
+      </c>
+      <c r="E165" s="3">
+        <v>1</v>
+      </c>
+      <c r="F165" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>9</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="2">
+        <v>6</v>
+      </c>
+      <c r="D166">
+        <v>13</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1</v>
+      </c>
+      <c r="F166" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>9</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="2">
+        <v>4</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162">
-        <v>9</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="2">
-        <v>6</v>
-      </c>
-      <c r="D162">
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>9</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="2">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>9</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="2">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169" s="3">
+        <v>1</v>
+      </c>
+      <c r="F169" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>9</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="2">
+        <v>4</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1</v>
+      </c>
+      <c r="F170" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>9</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="2">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171" s="3">
+        <v>1</v>
+      </c>
+      <c r="F171" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>9</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="2">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>6</v>
+      </c>
+      <c r="E172" s="3">
+        <v>1</v>
+      </c>
+      <c r="F172" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>9</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="2">
+        <v>1</v>
+      </c>
+      <c r="D173">
         <v>13</v>
       </c>
-      <c r="E162" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163">
-        <v>9</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C163" s="2">
-        <v>4</v>
-      </c>
-      <c r="D163">
-        <v>2</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="E173" s="3">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>9</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="2">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164">
-        <v>9</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C164" s="2">
-        <v>3</v>
-      </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-      <c r="E164" t="s">
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>9</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="2">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>10</v>
+      </c>
+      <c r="E175" s="3">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>9</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="2">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+      <c r="E176" s="3">
+        <v>1</v>
+      </c>
+      <c r="F176" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>9</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="2">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>4</v>
+      </c>
+      <c r="E177" s="3">
+        <v>1</v>
+      </c>
+      <c r="F177" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>9</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" s="2">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>9</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="2">
+        <v>8</v>
+      </c>
+      <c r="D179">
+        <v>8</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1</v>
+      </c>
+      <c r="F179" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
-      <c r="A165">
-        <v>9</v>
-      </c>
-      <c r="B165" s="2" t="s">
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>9</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" s="2">
+        <v>5</v>
+      </c>
+      <c r="D180">
         <v>7</v>
       </c>
-      <c r="C165" s="2">
-        <v>1</v>
-      </c>
-      <c r="D165">
-        <v>2</v>
-      </c>
-      <c r="E165" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166">
-        <v>9</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="2">
-        <v>4</v>
-      </c>
-      <c r="D166">
-        <v>5</v>
-      </c>
-      <c r="E166" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167">
-        <v>9</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C167" s="2">
-        <v>2</v>
-      </c>
-      <c r="D167">
-        <v>2</v>
-      </c>
-      <c r="E167" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168">
-        <v>9</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168" s="2">
-        <v>3</v>
-      </c>
-      <c r="D168">
-        <v>6</v>
-      </c>
-      <c r="E168" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169">
-        <v>9</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" s="2">
-        <v>1</v>
-      </c>
-      <c r="D169">
-        <v>13</v>
-      </c>
-      <c r="E169" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170">
-        <v>9</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C170" s="2">
-        <v>5</v>
-      </c>
-      <c r="D170">
-        <v>5</v>
-      </c>
-      <c r="E170" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171">
-        <v>9</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171" s="2">
-        <v>2</v>
-      </c>
-      <c r="D171">
-        <v>10</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="E180" s="3">
+        <v>1</v>
+      </c>
+      <c r="F180" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
-      <c r="A172">
-        <v>9</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C172" s="2">
-        <v>3</v>
-      </c>
-      <c r="D172">
-        <v>5</v>
-      </c>
-      <c r="E172" t="s">
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>9</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="2">
+        <v>6</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+      <c r="E181" s="3">
+        <v>1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>9</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C182" s="2">
+        <v>9</v>
+      </c>
+      <c r="D182">
+        <v>6</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1</v>
+      </c>
+      <c r="F182" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
-      <c r="A173">
-        <v>9</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C173" s="2">
-        <v>1</v>
-      </c>
-      <c r="D173">
-        <v>4</v>
-      </c>
-      <c r="E173" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174">
-        <v>9</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C174" s="2">
-        <v>3</v>
-      </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
-      <c r="E174" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175">
-        <v>9</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C175" s="2">
-        <v>8</v>
-      </c>
-      <c r="D175">
-        <v>8</v>
-      </c>
-      <c r="E175" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176">
-        <v>9</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C176" s="2">
-        <v>5</v>
-      </c>
-      <c r="D176">
-        <v>7</v>
-      </c>
-      <c r="E176" t="s">
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>9</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" s="2">
+        <v>5</v>
+      </c>
+      <c r="D183">
+        <v>9</v>
+      </c>
+      <c r="E183" s="3">
+        <v>1</v>
+      </c>
+      <c r="F183" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
-      <c r="A177">
-        <v>9</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C177" s="2">
-        <v>6</v>
-      </c>
-      <c r="D177">
-        <v>3</v>
-      </c>
-      <c r="E177" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178">
-        <v>9</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C178" s="2">
-        <v>9</v>
-      </c>
-      <c r="D178">
-        <v>6</v>
-      </c>
-      <c r="E178" t="s">
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>9</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" s="2">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>6</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1</v>
+      </c>
+      <c r="F184" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>9</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="2">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>4</v>
+      </c>
+      <c r="E185" s="3">
+        <v>1</v>
+      </c>
+      <c r="F185" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
-      <c r="A179">
-        <v>9</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C179" s="2">
-        <v>5</v>
-      </c>
-      <c r="D179">
-        <v>9</v>
-      </c>
-      <c r="E179" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180">
-        <v>9</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C180" s="2">
-        <v>3</v>
-      </c>
-      <c r="D180">
-        <v>6</v>
-      </c>
-      <c r="E180" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181">
-        <v>9</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C181" s="2">
-        <v>2</v>
-      </c>
-      <c r="D181">
-        <v>4</v>
-      </c>
-      <c r="E181" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182">
-        <v>10</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C182" s="2">
-        <v>6</v>
-      </c>
-      <c r="D182">
-        <v>13</v>
-      </c>
-      <c r="E182" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183">
-        <v>10</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C183" s="2">
-        <v>4</v>
-      </c>
-      <c r="D183">
-        <v>3</v>
-      </c>
-      <c r="E183" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184">
-        <v>10</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C184" s="2">
-        <v>3</v>
-      </c>
-      <c r="D184">
-        <v>2</v>
-      </c>
-      <c r="E184" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185">
-        <v>10</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C185" s="2">
-        <v>1</v>
-      </c>
-      <c r="D185">
-        <v>2</v>
-      </c>
-      <c r="E185" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>10</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C186" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D186">
-        <v>5</v>
-      </c>
-      <c r="E186" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="E186" s="3">
+        <v>1</v>
+      </c>
+      <c r="F186" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>10</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C187" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D187">
-        <v>2</v>
-      </c>
-      <c r="E187" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E187" s="3">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>10</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>10</v>
+      <c r="B188" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C188" s="2">
         <v>3</v>
       </c>
       <c r="D188">
-        <v>6</v>
-      </c>
-      <c r="E188" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="E188" s="3">
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>10</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>11</v>
+      <c r="B189" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C189" s="2">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>13</v>
-      </c>
-      <c r="E189" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="E189" s="3">
+        <v>1</v>
+      </c>
+      <c r="F189" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>10</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>12</v>
+      <c r="B190" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C190" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D190">
-        <v>4</v>
-      </c>
-      <c r="E190" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>10</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>13</v>
+      <c r="B191" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C191" s="2">
         <v>2</v>
       </c>
       <c r="D191">
-        <v>9</v>
-      </c>
-      <c r="E191" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="E191" s="3">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>10</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C192" s="2">
         <v>3</v>
       </c>
       <c r="D192">
-        <v>5</v>
-      </c>
-      <c r="E192" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="E192" s="3">
+        <v>1</v>
+      </c>
+      <c r="F192" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>10</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C193" s="2">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>5</v>
-      </c>
-      <c r="E193" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="E193" s="3">
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>10</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C194" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D194">
-        <v>1</v>
-      </c>
-      <c r="E194" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="E194" s="3">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>10</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C195" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>8</v>
-      </c>
-      <c r="E195" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E195" s="3">
+        <v>1</v>
+      </c>
+      <c r="F195" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>10</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C196" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D196">
-        <v>3</v>
-      </c>
-      <c r="E196" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="E196" s="3">
+        <v>1</v>
+      </c>
+      <c r="F196" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>10</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C197" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>4</v>
-      </c>
-      <c r="E197" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="E197" s="3">
+        <v>1</v>
+      </c>
+      <c r="F197" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>10</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C198" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D198">
-        <v>9</v>
-      </c>
-      <c r="E198" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="E198" s="3">
+        <v>1</v>
+      </c>
+      <c r="F198" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>10</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C199" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D199">
-        <v>9</v>
-      </c>
-      <c r="E199" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="E199" s="3">
+        <v>1</v>
+      </c>
+      <c r="F199" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>10</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C200" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D200">
-        <v>2</v>
-      </c>
-      <c r="E200" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E200" s="3">
+        <v>1</v>
+      </c>
+      <c r="F200" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>10</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" s="2">
+        <v>6</v>
+      </c>
+      <c r="D201">
+        <v>4</v>
+      </c>
+      <c r="E201" s="3">
+        <v>1</v>
+      </c>
+      <c r="F201" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>10</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" s="2">
+        <v>9</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" s="3">
+        <v>1</v>
+      </c>
+      <c r="F202" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>10</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C203" s="2">
+        <v>5</v>
+      </c>
+      <c r="D203">
+        <v>9</v>
+      </c>
+      <c r="E203" s="3">
+        <v>1</v>
+      </c>
+      <c r="F203" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>10</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C204" s="2">
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204" s="3">
+        <v>1</v>
+      </c>
+      <c r="F204" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>10</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C201" s="2">
-        <v>2</v>
-      </c>
-      <c r="D201">
-        <v>4</v>
-      </c>
-      <c r="E201" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202">
-        <v>11</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C202" s="2">
-        <v>6</v>
-      </c>
-      <c r="D202">
-        <v>16</v>
-      </c>
-      <c r="E202" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203">
-        <v>11</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C203" s="2">
-        <v>4</v>
-      </c>
-      <c r="D203">
-        <v>3</v>
-      </c>
-      <c r="E203" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204">
-        <v>11</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C204" s="2">
-        <v>3</v>
-      </c>
-      <c r="D204">
-        <v>2</v>
-      </c>
-      <c r="E204" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205">
-        <v>11</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C205" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>2</v>
-      </c>
-      <c r="E205" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="E205" s="3">
+        <v>1</v>
+      </c>
+      <c r="F205" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>11</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C206" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D206">
-        <v>5</v>
-      </c>
-      <c r="E206" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="E206" s="3">
+        <v>1</v>
+      </c>
+      <c r="F206" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207">
         <v>11</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C207" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D207">
-        <v>2</v>
-      </c>
-      <c r="E207" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E207" s="3">
+        <v>1</v>
+      </c>
+      <c r="F207" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>11</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>10</v>
+      <c r="B208" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C208" s="2">
         <v>3</v>
       </c>
       <c r="D208">
-        <v>6</v>
-      </c>
-      <c r="E208" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="E208" s="3">
+        <v>1</v>
+      </c>
+      <c r="F208" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>11</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>11</v>
+      <c r="B209" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C209" s="2">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>8</v>
-      </c>
-      <c r="E209" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="E209" s="3">
+        <v>1</v>
+      </c>
+      <c r="F209" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>11</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>12</v>
+      <c r="B210" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C210" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D210">
-        <v>3</v>
-      </c>
-      <c r="E210" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="E210" s="3">
+        <v>1</v>
+      </c>
+      <c r="F210" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>11</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>13</v>
+      <c r="B211" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C211" s="2">
         <v>2</v>
       </c>
       <c r="D211">
-        <v>7</v>
-      </c>
-      <c r="E211" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="E211" s="3">
+        <v>1</v>
+      </c>
+      <c r="F211" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>11</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C212" s="2">
         <v>3</v>
       </c>
       <c r="D212">
-        <v>2</v>
-      </c>
-      <c r="E212" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="E212" s="3">
+        <v>1</v>
+      </c>
+      <c r="F212" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>11</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C213" s="2">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>4</v>
-      </c>
-      <c r="E213" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="E213" s="3">
+        <v>1</v>
+      </c>
+      <c r="F213" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>11</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C214" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D214">
         <v>3</v>
       </c>
-      <c r="E214" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="E214" s="3">
+        <v>1</v>
+      </c>
+      <c r="F214" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>11</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C215" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D215">
         <v>7</v>
       </c>
-      <c r="E215" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="E215" s="3">
+        <v>1</v>
+      </c>
+      <c r="F215" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>11</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C216" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D216">
-        <v>8</v>
-      </c>
-      <c r="E216" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="E216" s="3">
+        <v>1</v>
+      </c>
+      <c r="F216" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>11</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C217" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>1</v>
-      </c>
-      <c r="E217" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="E217" s="3">
+        <v>1</v>
+      </c>
+      <c r="F217" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>11</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C218" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D218">
-        <v>9</v>
-      </c>
-      <c r="E218" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E218" s="3">
+        <v>1</v>
+      </c>
+      <c r="F218" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>11</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C219" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D219">
-        <v>9</v>
-      </c>
-      <c r="E219" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="E219" s="3">
+        <v>1</v>
+      </c>
+      <c r="F219" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>11</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C220" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D220">
-        <v>6</v>
-      </c>
-      <c r="E220" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="E220" s="3">
+        <v>1</v>
+      </c>
+      <c r="F220" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>11</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C221" s="2">
+        <v>6</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221" s="3">
+        <v>1</v>
+      </c>
+      <c r="F221" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222">
+        <v>11</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C222" s="2">
+        <v>9</v>
+      </c>
+      <c r="D222">
+        <v>9</v>
+      </c>
+      <c r="E222" s="3">
+        <v>1</v>
+      </c>
+      <c r="F222" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223">
+        <v>11</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C223" s="2">
+        <v>5</v>
+      </c>
+      <c r="D223">
+        <v>9</v>
+      </c>
+      <c r="E223" s="3">
+        <v>1</v>
+      </c>
+      <c r="F223" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224">
+        <v>11</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C224" s="2">
+        <v>3</v>
+      </c>
+      <c r="D224">
+        <v>6</v>
+      </c>
+      <c r="E224" s="3">
+        <v>1</v>
+      </c>
+      <c r="F224" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225">
+        <v>11</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C221" s="2">
-        <v>2</v>
-      </c>
-      <c r="D221">
-        <v>4</v>
-      </c>
-      <c r="E221" t="s">
-        <v>167</v>
+      <c r="C225" s="2">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>4</v>
+      </c>
+      <c r="E225" s="3">
+        <v>1</v>
+      </c>
+      <c r="F225" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
